--- a/Callsheet.xlsx
+++ b/Callsheet.xlsx
@@ -488,13 +488,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="31.6640625" customWidth="1" min="1" max="1"/>
     <col width="31.88671875" customWidth="1" min="2" max="2"/>
@@ -518,19 +518,19 @@
     <row r="3" ht="38.4" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Facility: Conversations</t>
+          <t>Facility: Friley</t>
         </is>
       </c>
     </row>
     <row r="4" ht="39.6" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Date: 11/25/2024</t>
+          <t>Date: 12/13/2024</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Time: 12:11:33 PM</t>
+          <t>Time: 09:50:38 AM</t>
         </is>
       </c>
     </row>
@@ -574,19 +574,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Neuman</t>
+          <t>Regmi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Emily (A)</t>
+          <t>Ristu</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WE</t>
+          <t xml:space="preserve"> DR</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -603,19 +603,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Szewczyk</t>
+          <t>Gyan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Belinda</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -632,19 +632,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jaeckel</t>
+          <t>Turner</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WE</t>
+          <t xml:space="preserve"> DR</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -661,19 +661,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Corcoran</t>
+          <t>Worsham</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bradley (Brad)</t>
+          <t>Anthon</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WE</t>
+          <t xml:space="preserve"> Late DR</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -690,19 +690,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bober</t>
+          <t>Abbasani</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Matthew (Matt)</t>
+          <t>Hari Preetham Reddy (Preetham)</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WE</t>
+          <t xml:space="preserve"> DR</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -719,19 +719,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Baumer</t>
+          <t>Schroeder</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Kasey</t>
+          <t>Bryce</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Late</t>
+          <t xml:space="preserve"> DR</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -748,12 +748,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mangrich</t>
+          <t>Nguyen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Caleb</t>
+          <t>Huy</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -769,7 +769,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WE</t>
+          <t xml:space="preserve"> DR</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -777,19 +777,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Klostermann</t>
+          <t>Nityandal</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Ananth</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -798,27 +798,31 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WE Under Hours</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t xml:space="preserve"> Late DR</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3+ lunch shifts excuse WE</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Murphy</t>
+          <t>Tahmasebi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kelton</t>
+          <t>Ali</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -827,7 +831,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WE</t>
+          <t xml:space="preserve"> Late DR</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -835,19 +839,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Guth</t>
+          <t>Struck</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Peyton</t>
+          <t>Connor</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -856,7 +860,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WE</t>
+          <t xml:space="preserve"> DR</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -864,19 +868,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cruz</t>
+          <t>Todhunter</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Genesis (Genny) (A)</t>
+          <t>Abigail</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -885,7 +889,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Late</t>
+          <t xml:space="preserve"> Late DR</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -893,50 +897,703 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nguyen</t>
+          <t>Voleti</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Vy</t>
+          <t>Venkata Saiteja</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sharma</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Anusha</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DR</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Shakil</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Shamim</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>16</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Stroud</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sean</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late Under Hours DR</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Najam</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Rao Ibtisam (Rao)</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DR</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Seemakurthi</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Prudvik</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>13</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Harris</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Rp</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mohinth</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>9</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late DR</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>3+ lunch shifts excuse WE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ulses</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Trey</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>2</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D26" t="n">
         <v>6</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> WE Under Hours Late</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-    </row>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Under Hours</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Durbhakula</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Ramamurthy</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>11</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late DR</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Dokuri</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Swadesh Reddy</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>17</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DR</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Shail</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sejal</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late DR</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Murugesh</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Aryan</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>6</v>
+      </c>
+      <c r="D30" t="n">
+        <v>18</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late DR</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Toutoungi</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Jennah</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>16</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Alagarsamy</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Gayathri</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Poonia</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Avnish (A)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>14</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Brooks</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Patrick (Pat) (SUP)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Under Hours</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Deshpande</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Raksha Ravindra</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Lilleodden</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Christine</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>13</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Muhammadu Anees</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Mohammadu Yoosuf</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>14</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Vangeepuram</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sushen</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late DR</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Dijeng</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Bodikana (SUP)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>17</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Unnava</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Aditya</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>15</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late DR</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guchhait</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Subhajit (SUP)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Under Hours</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
